--- a/output/xlsx_reports/unit_combat_speeds.xlsx
+++ b/output/xlsx_reports/unit_combat_speeds.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuzzy\BKsDBTools\summoners_war_0_1_0\output\xlsx_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuzzy\bk_sw_tools_DEV\output\xlsx_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7160"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="combat_speeds" sheetId="1" r:id="rId1"/>
@@ -655,33 +655,33 @@
   <dimension ref="A1:Z1047"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="47.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.26953125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="8.7265625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="8.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -718,7 +718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -742,7 +742,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -774,7 +774,7 @@
       <c r="V3" s="24"/>
       <c r="W3" s="25"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -854,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M12" s="19"/>
       <c r="R12" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M21" s="19"/>
       <c r="R21" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M83" s="19"/>
       <c r="R83" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M89" s="19"/>
       <c r="R89" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M96" s="19"/>
       <c r="R96" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M111" s="19"/>
       <c r="R111" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M112" s="19"/>
       <c r="R112" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M113" s="19"/>
       <c r="R113" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M114" s="19"/>
       <c r="R114" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M115" s="19"/>
       <c r="R115" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M116" s="19"/>
       <c r="R116" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M117" s="19"/>
       <c r="R117" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M118" s="19"/>
       <c r="R118" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M119" s="19"/>
       <c r="R119" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M120" s="19"/>
       <c r="R120" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M121" s="19"/>
       <c r="R121" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M122" s="19"/>
       <c r="R122" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M123" s="19"/>
       <c r="R123" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M124" s="19"/>
       <c r="R124" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M125" s="19"/>
       <c r="R125" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M132" s="19"/>
       <c r="R132" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M146" s="19"/>
       <c r="R146" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M147" s="19"/>
       <c r="R147" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M148" s="19"/>
       <c r="R148" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M149" s="19"/>
       <c r="R149" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M150" s="19"/>
       <c r="R150" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M151" s="19"/>
       <c r="R151" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M152" s="19"/>
       <c r="R152" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M153" s="19"/>
       <c r="R153" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M154" s="19"/>
       <c r="R154" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M155" s="19"/>
       <c r="R155" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M156" s="19"/>
       <c r="R156" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M157" s="19"/>
       <c r="R157" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M158" s="19"/>
       <c r="R158" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M159" s="19"/>
       <c r="R159" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M160" s="19"/>
       <c r="R160" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M161" s="19"/>
       <c r="R161" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M162" s="19"/>
       <c r="R162" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R167" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R168" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R169" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R170" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R171" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R172" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R173" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R174" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R175" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="R176" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="177" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R177" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="178" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R178" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="179" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R179" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="180" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R180" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="181" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R181" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="182" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R182" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="183" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R183" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="184" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R184" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="185" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R185" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="186" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R186" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="187" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R187" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="188" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R188" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="189" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R189" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="190" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R190" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="191" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R191" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="192" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R192" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="193" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R193" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="194" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R194" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="195" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R195" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="196" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R196" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R197" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R198" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R199" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R200" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R201" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R202" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R203" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R204" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R205" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R206" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="207" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R207" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="208" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R208" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="209" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R209" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="210" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R210" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="211" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R211" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="212" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R212" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="213" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R213" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="214" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R214" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="215" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R215" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="216" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R216" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="217" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R217" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="218" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R218" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="219" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R219" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="220" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R220" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="221" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R221" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="222" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R222" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="223" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R223" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="224" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R224" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="225" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R225" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="226" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R226" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="227" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R227" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="228" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R228" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="229" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R229" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="230" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R230" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="231" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R231" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="232" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R232" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10580,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="233" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R233" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="234" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R234" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="235" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R235" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="236" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R236" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="237" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R237" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="238" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R238" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="239" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R239" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="240" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R240" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="241" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R241" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="242" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R242" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="243" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R243" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="244" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R244" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="245" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R245" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="246" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R246" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="247" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R247" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="248" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R248" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="249" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R249" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="250" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R250" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="251" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R251" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="252" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R252" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11340,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="253" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R253" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="254" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R254" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="255" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R255" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="256" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R256" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="257" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R257" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="258" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R258" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="259" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R259" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="260" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R260" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="261" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R261" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="262" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R262" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="263" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R263" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="264" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R264" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="265" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R265" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="266" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R266" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="267" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R267" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="268" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R268" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="269" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R269" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="270" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R270" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="271" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R271" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="272" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R272" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="273" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R273" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="274" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R274" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="275" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R275" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="276" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R276" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="277" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R277" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="278" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R278" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="279" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R279" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="280" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R280" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="281" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R281" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="282" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R282" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="283" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R283" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="284" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R284" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12556,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="285" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R285" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="286" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R286" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="287" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R287" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="288" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R288" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="289" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R289" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="290" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R290" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="291" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R291" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="292" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R292" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="293" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R293" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="294" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R294" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="295" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R295" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="296" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R296" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="297" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R297" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="298" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R298" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="299" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R299" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13126,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="300" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R300" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13164,7 +13164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="301" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R301" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="302" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R302" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13240,7 +13240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="303" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R303" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="304" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R304" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="305" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R305" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="306" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R306" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="307" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R307" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="308" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R308" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="309" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R309" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="310" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R310" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13544,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="311" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R311" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="312" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R312" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="313" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R313" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="314" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R314" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="315" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R315" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="316" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R316" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="317" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R317" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="318" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R318" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="319" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R319" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="320" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R320" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="321" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R321" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="322" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R322" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="323" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R323" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="324" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R324" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="325" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R325" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14114,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="326" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R326" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14152,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="327" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R327" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="328" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R328" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14228,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="329" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R329" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14266,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="330" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R330" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="331" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R331" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14342,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="332" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R332" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="333" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R333" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="334" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R334" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="335" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R335" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="336" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R336" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="337" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R337" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="338" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R338" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="339" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R339" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="340" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R340" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14684,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="341" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R341" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="342" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R342" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="343" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R343" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="344" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R344" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="345" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R345" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="346" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R346" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="347" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R347" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14950,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="348" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R348" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14988,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="349" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R349" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="350" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R350" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="351" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R351" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15102,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="352" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R352" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15140,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="353" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R353" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="354" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R354" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="355" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R355" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15254,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="356" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R356" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="357" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R357" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15330,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="358" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R358" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="359" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R359" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="360" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R360" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15444,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="361" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R361" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15482,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="362" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R362" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="363" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R363" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="364" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R364" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15596,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="365" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R365" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="366" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R366" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="367" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R367" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15710,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="368" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R368" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="369" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R369" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15786,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="370" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R370" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="371" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R371" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="372" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R372" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15900,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="373" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R373" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="374" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R374" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="375" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R375" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="376" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R376" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="377" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R377" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="378" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R378" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="379" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R379" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="380" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R380" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16204,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="381" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R381" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="382" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R382" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="383" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R383" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="384" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R384" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="385" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R385" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="386" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R386" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="387" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R387" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="388" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R388" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="389" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R389" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16546,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="390" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R390" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="391" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R391" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16622,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="392" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R392" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="393" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R393" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="394" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R394" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="395" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R395" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16774,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="396" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R396" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16812,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="397" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R397" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="398" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R398" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="399" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R399" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16926,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="400" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R400" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="401" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R401" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="402" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R402" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="403" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R403" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="404" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R404" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="405" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R405" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17154,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="406" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R406" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="407" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R407" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="408" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R408" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17268,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="409" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R409" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="410" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R410" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17344,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="411" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R411" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17382,7 +17382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="412" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R412" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="413" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R413" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="414" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R414" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="415" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R415" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17534,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="416" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R416" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17572,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="417" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R417" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="418" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R418" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="419" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R419" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="420" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R420" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="421" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R421" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="422" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R422" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="423" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R423" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="424" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R424" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17876,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="425" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R425" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="426" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R426" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="427" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R427" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="428" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R428" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="429" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R429" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="430" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R430" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="431" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R431" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="432" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R432" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="433" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R433" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18218,7 +18218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="434" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R434" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="435" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R435" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18294,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="436" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R436" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="437" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R437" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="438" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R438" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="439" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R439" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="440" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R440" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18484,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="441" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R441" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="442" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R442" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18560,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="443" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R443" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="444" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R444" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18636,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="445" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R445" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="446" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R446" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="447" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R447" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="448" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R448" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18788,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="449" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R449" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="450" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R450" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="451" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R451" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="452" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R452" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18940,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="453" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R453" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18978,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="454" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R454" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="455" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R455" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="456" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R456" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19092,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="457" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R457" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="458" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R458" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="459" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R459" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19206,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="460" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R460" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="461" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R461" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="462" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R462" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19320,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="463" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R463" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19358,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="464" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R464" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="465" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R465" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="466" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R466" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19472,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="467" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R467" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="468" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R468" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="469" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R469" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19586,7 +19586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="470" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R470" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="471" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R471" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="472" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R472" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19700,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="473" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R473" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="474" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R474" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19776,7 +19776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="475" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R475" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19814,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="476" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R476" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="477" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R477" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="478" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R478" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="479" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R479" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19966,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="480" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R480" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20004,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="481" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R481" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="482" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R482" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="483" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R483" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="484" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R484" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="485" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R485" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="486" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R486" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20232,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="487" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R487" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="488" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R488" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20308,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="489" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R489" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20346,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="490" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R490" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="491" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R491" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="492" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R492" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20460,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="493" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R493" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="494" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R494" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20536,7 +20536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="495" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R495" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20574,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="496" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R496" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20612,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="497" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R497" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="498" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R498" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20688,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="499" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R499" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="500" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R500" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="501" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R501" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20802,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="502" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R502" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="503" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R503" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="504" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R504" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20916,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="505" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R505" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20954,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="506" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R506" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="507" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R507" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21030,7 +21030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="508" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R508" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21068,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="509" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R509" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="510" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R510" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21144,7 +21144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="511" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R511" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21182,7 +21182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="512" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R512" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21220,7 +21220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="513" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R513" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="514" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R514" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21296,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="515" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R515" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21334,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="516" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R516" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="517" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R517" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21410,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="518" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R518" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21448,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="519" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R519" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="520" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R520" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21524,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="521" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R521" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21562,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="522" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R522" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="523" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R523" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21638,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="524" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R524" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="525" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R525" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21714,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="526" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R526" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21752,7 +21752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="527" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R527" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="528" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R528" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21828,7 +21828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="529" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R529" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21866,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="530" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R530" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21904,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="531" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R531" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="532" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R532" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="533" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R533" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="534" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R534" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22056,7 +22056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="535" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R535" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="536" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R536" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22132,7 +22132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="537" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R537" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22170,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="538" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R538" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="539" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R539" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22246,7 +22246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="540" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R540" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="541" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R541" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="542" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R542" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="543" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R543" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22398,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="544" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R544" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="545" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R545" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="546" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R546" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="547" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R547" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="548" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R548" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22588,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="549" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R549" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="550" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R550" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22664,7 +22664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="551" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R551" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="552" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R552" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22740,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="553" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R553" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22778,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="554" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R554" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22816,7 +22816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="555" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R555" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22854,7 +22854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="556" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R556" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="557" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R557" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="558" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R558" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22968,7 +22968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="559" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R559" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23006,7 +23006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="560" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R560" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="561" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R561" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23082,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="562" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R562" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="563" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R563" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="564" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R564" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="565" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R565" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23234,7 +23234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="566" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R566" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="567" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R567" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23310,7 +23310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="568" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R568" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="569" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R569" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23386,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="570" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R570" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="571" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R571" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="572" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R572" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="573" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R573" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="574" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R574" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="575" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R575" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="576" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R576" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23652,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="577" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R577" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23690,7 +23690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="578" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R578" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="579" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R579" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23766,7 +23766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="580" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R580" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="581" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R581" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23842,7 +23842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="582" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R582" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23880,7 +23880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="583" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R583" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23918,7 +23918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="584" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R584" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="585" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R585" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23994,7 +23994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="586" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R586" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="587" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R587" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24070,7 +24070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="588" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R588" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="589" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R589" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24146,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="590" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R590" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="591" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R591" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="592" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R592" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="593" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R593" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="594" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R594" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="595" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R595" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24374,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="596" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R596" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="597" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R597" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="598" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R598" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="599" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R599" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24526,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="600" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R600" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="601" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R601" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24602,7 +24602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="602" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R602" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="603" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R603" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="604" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R604" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24716,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="605" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R605" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24754,7 +24754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="606" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R606" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="607" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R607" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24830,7 +24830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="608" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R608" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="609" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R609" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="610" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R610" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24944,7 +24944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="611" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R611" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="612" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R612" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="613" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R613" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="614" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R614" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="615" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R615" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="616" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R616" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="617" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R617" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="618" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R618" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="619" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R619" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="620" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R620" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="621" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R621" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="622" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R622" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="623" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R623" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="624" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R624" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="625" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R625" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="626" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R626" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="627" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R627" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="628" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R628" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="629" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R629" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25666,7 +25666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="630" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R630" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25704,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="631" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R631" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25742,7 +25742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="632" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R632" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25780,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="633" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R633" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="634" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R634" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25856,7 +25856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="635" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R635" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25894,7 +25894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="636" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R636" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="637" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R637" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="638" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R638" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="639" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R639" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="640" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R640" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26084,7 +26084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="641" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R641" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26122,7 +26122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="642" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R642" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="643" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R643" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26198,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="644" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R644" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26236,7 +26236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="645" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R645" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26274,7 +26274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="646" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R646" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="647" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R647" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26350,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="648" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R648" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26388,7 +26388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="649" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R649" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="650" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R650" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26464,7 +26464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="651" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R651" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="652" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R652" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26540,7 +26540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="653" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R653" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26578,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="654" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R654" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26616,7 +26616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="655" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R655" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26654,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="656" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R656" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26692,7 +26692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="657" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R657" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26730,7 +26730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="658" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R658" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26768,7 +26768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="659" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R659" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26806,7 +26806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="660" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R660" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="661" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R661" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26882,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="662" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R662" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="663" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R663" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26958,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="664" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R664" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="665" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R665" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27034,7 +27034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="666" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R666" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27072,7 +27072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="667" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R667" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27110,7 +27110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="668" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R668" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27148,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="669" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R669" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27186,7 +27186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="670" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R670" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27224,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="671" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R671" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27262,7 +27262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="672" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R672" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="673" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R673" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27338,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="674" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R674" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27376,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="675" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R675" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27414,7 +27414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="676" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R676" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27452,7 +27452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="677" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R677" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="678" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R678" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27528,7 +27528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="679" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R679" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27566,7 +27566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="680" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R680" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27604,7 +27604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="681" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R681" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27642,7 +27642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="682" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R682" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27680,7 +27680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="683" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R683" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="684" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R684" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27756,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="685" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R685" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="686" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R686" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="687" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R687" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="688" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R688" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="689" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R689" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="690" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R690" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27984,7 +27984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="691" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R691" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="692" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R692" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="693" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R693" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="694" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R694" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28136,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="695" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R695" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28174,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="696" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R696" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28212,7 +28212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="697" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R697" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="698" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R698" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28288,7 +28288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="699" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R699" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28326,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="700" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R700" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28364,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="701" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R701" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28402,7 +28402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="702" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R702" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28440,7 +28440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="703" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R703" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28478,7 +28478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="704" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R704" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28516,7 +28516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="705" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R705" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="706" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R706" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28592,7 +28592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="707" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R707" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="708" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R708" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28668,7 +28668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="709" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R709" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="710" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R710" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28744,7 +28744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="711" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R711" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="712" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R712" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28820,7 +28820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="713" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R713" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="714" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R714" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28896,7 +28896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="715" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R715" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="716" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R716" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28972,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="717" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R717" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="718" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R718" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29048,7 +29048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="719" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R719" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="720" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R720" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29124,7 +29124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="721" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R721" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="722" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R722" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29200,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="723" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R723" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="724" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R724" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29276,7 +29276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="725" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R725" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="726" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R726" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29352,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="727" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R727" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29390,7 +29390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="728" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R728" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="729" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R729" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="730" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R730" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29504,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="731" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R731" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="732" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R732" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="733" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R733" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29618,7 +29618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="734" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R734" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29656,7 +29656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="735" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R735" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="736" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R736" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29732,7 +29732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="737" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R737" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="738" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R738" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="739" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R739" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="740" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R740" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29884,7 +29884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="741" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R741" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29922,7 +29922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="742" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R742" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29960,7 +29960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="743" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R743" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="744" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R744" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="745" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R745" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="746" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R746" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30112,7 +30112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="747" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R747" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="748" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R748" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="749" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R749" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="750" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R750" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30264,7 +30264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="751" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R751" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="752" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R752" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30340,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="753" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R753" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30378,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="754" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R754" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="755" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R755" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="756" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R756" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30492,7 +30492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="757" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R757" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30530,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="758" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R758" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30568,7 +30568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="759" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R759" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30606,7 +30606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="760" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R760" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="761" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R761" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30682,7 +30682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="762" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R762" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30720,7 +30720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="763" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R763" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30758,7 +30758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="764" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R764" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30796,7 +30796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="765" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R765" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30834,7 +30834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="766" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R766" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30872,7 +30872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="767" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R767" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30910,7 +30910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="768" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R768" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30948,7 +30948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="769" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R769" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30986,7 +30986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="770" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R770" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31024,7 +31024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="771" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R771" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31062,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="772" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R772" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31100,7 +31100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="773" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R773" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="774" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R774" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="775" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R775" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31214,7 +31214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="776" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R776" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31252,7 +31252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="777" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R777" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31290,7 +31290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="778" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R778" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31328,7 +31328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="779" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R779" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31366,7 +31366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="780" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R780" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31404,7 +31404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="781" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R781" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="782" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R782" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31480,7 +31480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="783" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R783" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="784" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R784" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31556,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="785" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R785" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="786" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R786" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31632,7 +31632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="787" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R787" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31670,7 +31670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="788" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R788" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="789" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R789" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31746,7 +31746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="790" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R790" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31784,7 +31784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="791" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R791" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31822,7 +31822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="792" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R792" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31860,7 +31860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="793" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R793" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31898,7 +31898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="794" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R794" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="795" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R795" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31974,7 +31974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="796" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R796" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32012,7 +32012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="797" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R797" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32050,7 +32050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="798" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R798" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32088,7 +32088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="799" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R799" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32126,7 +32126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="800" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R800" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32164,7 +32164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="801" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R801" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32202,7 +32202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="802" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R802" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32240,7 +32240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="803" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R803" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32278,7 +32278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="804" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R804" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32316,7 +32316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="805" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R805" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32354,7 +32354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="806" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R806" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32392,7 +32392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="807" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R807" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32430,7 +32430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="808" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R808" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32468,7 +32468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="809" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R809" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32506,7 +32506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="810" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R810" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32544,7 +32544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="811" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R811" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32582,7 +32582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="812" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R812" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32620,7 +32620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="813" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R813" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32658,7 +32658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="814" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R814" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32696,7 +32696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="815" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R815" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32734,7 +32734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="816" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R816" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32772,7 +32772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="817" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R817" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32810,7 +32810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="818" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R818" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32848,7 +32848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="819" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R819" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32886,7 +32886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="820" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R820" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32924,7 +32924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="821" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R821" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32962,7 +32962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="822" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R822" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33000,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="823" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R823" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33038,7 +33038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="824" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R824" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33076,7 +33076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="825" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R825" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33114,7 +33114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="826" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R826" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33152,7 +33152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="827" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R827" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33190,7 +33190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="828" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R828" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33228,7 +33228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="829" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R829" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="830" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R830" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33304,7 +33304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="831" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R831" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33342,7 +33342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="832" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R832" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33380,7 +33380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="833" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R833" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="834" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R834" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33456,7 +33456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="835" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R835" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="836" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R836" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33532,7 +33532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="837" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R837" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33570,7 +33570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="838" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R838" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33608,7 +33608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="839" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R839" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="840" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R840" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33684,7 +33684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="841" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R841" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33722,7 +33722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="842" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R842" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="843" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R843" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33798,7 +33798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="844" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R844" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33836,7 +33836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="845" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R845" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33874,7 +33874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="846" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R846" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33912,7 +33912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="847" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R847" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33950,7 +33950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="848" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R848" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33988,7 +33988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="849" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R849" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34026,7 +34026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="850" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R850" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34064,7 +34064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="851" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R851" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34102,7 +34102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="852" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R852" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="853" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R853" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34178,7 +34178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="854" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R854" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34216,7 +34216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="855" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R855" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34254,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="856" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R856" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34292,7 +34292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="857" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R857" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34330,7 +34330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="858" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R858" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="859" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R859" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34406,7 +34406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="860" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R860" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="861" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R861" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34482,7 +34482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="862" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R862" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="863" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R863" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34558,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="864" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R864" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34596,7 +34596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="865" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R865" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34634,7 +34634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="866" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R866" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34672,7 +34672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="867" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R867" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="868" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R868" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34748,7 +34748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="869" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R869" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="870" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R870" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34824,7 +34824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="871" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R871" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="872" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R872" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34900,7 +34900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="873" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R873" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="874" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R874" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34976,7 +34976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="875" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R875" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="876" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R876" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35052,7 +35052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="877" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R877" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35090,7 +35090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="878" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R878" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35128,7 +35128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="879" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R879" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35166,7 +35166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="880" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R880" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35204,7 +35204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="881" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R881" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35242,7 +35242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="882" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R882" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35280,7 +35280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="883" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R883" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="884" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R884" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35356,7 +35356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="885" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R885" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35394,7 +35394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="886" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R886" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35432,7 +35432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="887" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R887" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35470,7 +35470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="888" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R888" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35508,7 +35508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="889" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R889" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35546,7 +35546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="890" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R890" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35584,7 +35584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="891" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R891" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35622,7 +35622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="892" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R892" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35660,7 +35660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="893" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R893" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35698,7 +35698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="894" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R894" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35736,7 +35736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="895" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R895" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35774,7 +35774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="896" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R896" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35812,7 +35812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="897" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R897" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35850,7 +35850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="898" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R898" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="899" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R899" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35926,7 +35926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="900" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R900" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35964,7 +35964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="901" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R901" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36002,7 +36002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="902" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R902" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36040,7 +36040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="903" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R903" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36078,7 +36078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="904" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R904" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36116,7 +36116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="905" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R905" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="906" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R906" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36192,7 +36192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="907" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R907" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36230,7 +36230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="908" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R908" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36268,7 +36268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="909" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R909" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36306,7 +36306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="910" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R910" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36344,7 +36344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="911" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R911" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="912" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R912" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36420,7 +36420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="913" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R913" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="914" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R914" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36496,7 +36496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="915" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R915" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="916" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R916" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36572,7 +36572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="917" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R917" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="918" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R918" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36648,7 +36648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="919" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R919" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="920" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R920" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36724,7 +36724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="921" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R921" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="922" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R922" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36800,7 +36800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="923" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R923" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="924" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R924" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36876,7 +36876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="925" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R925" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="926" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R926" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36952,7 +36952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="927" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R927" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="928" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R928" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37028,7 +37028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="929" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R929" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="930" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R930" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37104,7 +37104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="931" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R931" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="932" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R932" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37180,7 +37180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="933" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R933" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="934" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R934" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37256,7 +37256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="935" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R935" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37294,7 +37294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="936" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R936" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37332,7 +37332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="937" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R937" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37370,7 +37370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="938" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R938" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="939" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R939" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="940" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R940" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="941" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R941" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37522,7 +37522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="942" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R942" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="943" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R943" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37598,7 +37598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="944" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R944" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="945" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R945" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37674,7 +37674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="946" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R946" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="947" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R947" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37750,7 +37750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="948" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R948" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="949" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R949" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37826,7 +37826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="950" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R950" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="951" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R951" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37902,7 +37902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="952" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R952" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="953" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R953" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37978,7 +37978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="954" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R954" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="955" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R955" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38054,7 +38054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="956" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R956" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="957" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R957" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38130,7 +38130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="958" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R958" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38168,7 +38168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="959" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R959" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38206,7 +38206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="960" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R960" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38244,7 +38244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="961" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R961" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38282,7 +38282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="962" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R962" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38320,7 +38320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="963" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R963" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38358,7 +38358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="964" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R964" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38396,7 +38396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="965" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R965" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38434,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="966" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R966" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38472,7 +38472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="967" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R967" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38510,7 +38510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="968" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R968" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38548,7 +38548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="969" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R969" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38586,7 +38586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="970" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R970" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38624,7 +38624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="971" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R971" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38662,7 +38662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="972" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R972" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38700,7 +38700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="973" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R973" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38738,7 +38738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="974" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R974" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38776,7 +38776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="975" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R975" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38814,7 +38814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="976" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R976" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38852,7 +38852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="977" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R977" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38890,7 +38890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="978" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R978" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38928,7 +38928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="979" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R979" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38966,7 +38966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="980" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R980" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39004,7 +39004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="981" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R981" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39042,7 +39042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="982" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R982" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39080,7 +39080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="983" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R983" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39118,7 +39118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="984" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R984" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39156,7 +39156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="985" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R985" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39194,7 +39194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="986" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R986" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39232,7 +39232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="987" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R987" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39270,7 +39270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="988" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R988" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39308,7 +39308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="989" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R989" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39346,7 +39346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="990" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R990" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39384,7 +39384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="991" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R991" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39422,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="992" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R992" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39460,7 +39460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="993" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R993" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39498,7 +39498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="994" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R994" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39536,7 +39536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="995" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R995" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39574,7 +39574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="996" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R996" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39612,7 +39612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="997" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R997" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39650,7 +39650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="998" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R998" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39688,7 +39688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="999" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R999" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39726,7 +39726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1000" spans="18:26" x14ac:dyDescent="0.25">
       <c r="R1000" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39764,7 +39764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1001" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1001" s="9"/>
       <c r="T1001" s="9"/>
       <c r="U1001" s="9"/>
@@ -39774,7 +39774,7 @@
       <c r="Y1001" s="9"/>
       <c r="Z1001" s="9"/>
     </row>
-    <row r="1002" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1002" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1002" s="9"/>
       <c r="T1002" s="9"/>
       <c r="U1002" s="9"/>
@@ -39784,7 +39784,7 @@
       <c r="Y1002" s="9"/>
       <c r="Z1002" s="9"/>
     </row>
-    <row r="1003" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1003" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1003" s="9"/>
       <c r="T1003" s="9"/>
       <c r="U1003" s="9"/>
@@ -39794,7 +39794,7 @@
       <c r="Y1003" s="9"/>
       <c r="Z1003" s="9"/>
     </row>
-    <row r="1004" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1004" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1004" s="9"/>
       <c r="T1004" s="9"/>
       <c r="U1004" s="9"/>
@@ -39804,7 +39804,7 @@
       <c r="Y1004" s="9"/>
       <c r="Z1004" s="9"/>
     </row>
-    <row r="1005" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1005" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1005" s="9"/>
       <c r="T1005" s="9"/>
       <c r="U1005" s="9"/>
@@ -39814,7 +39814,7 @@
       <c r="Y1005" s="9"/>
       <c r="Z1005" s="9"/>
     </row>
-    <row r="1006" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1006" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1006" s="9"/>
       <c r="T1006" s="9"/>
       <c r="U1006" s="9"/>
@@ -39824,7 +39824,7 @@
       <c r="Y1006" s="9"/>
       <c r="Z1006" s="9"/>
     </row>
-    <row r="1007" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1007" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1007" s="9"/>
       <c r="T1007" s="9"/>
       <c r="U1007" s="9"/>
@@ -39834,7 +39834,7 @@
       <c r="Y1007" s="9"/>
       <c r="Z1007" s="9"/>
     </row>
-    <row r="1008" spans="18:26" x14ac:dyDescent="0.35">
+    <row r="1008" spans="18:26" x14ac:dyDescent="0.25">
       <c r="S1008" s="9"/>
       <c r="T1008" s="9"/>
       <c r="U1008" s="9"/>
@@ -39844,7 +39844,7 @@
       <c r="Y1008" s="9"/>
       <c r="Z1008" s="9"/>
     </row>
-    <row r="1009" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1009" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1009" s="9"/>
       <c r="T1009" s="9"/>
       <c r="U1009" s="9"/>
@@ -39854,7 +39854,7 @@
       <c r="Y1009" s="9"/>
       <c r="Z1009" s="9"/>
     </row>
-    <row r="1010" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1010" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1010" s="9"/>
       <c r="T1010" s="9"/>
       <c r="U1010" s="9"/>
@@ -39864,7 +39864,7 @@
       <c r="Y1010" s="9"/>
       <c r="Z1010" s="9"/>
     </row>
-    <row r="1011" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1011" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1011" s="9"/>
       <c r="T1011" s="9"/>
       <c r="U1011" s="9"/>
@@ -39874,7 +39874,7 @@
       <c r="Y1011" s="9"/>
       <c r="Z1011" s="9"/>
     </row>
-    <row r="1012" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1012" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1012" s="9"/>
       <c r="T1012" s="9"/>
       <c r="U1012" s="9"/>
@@ -39884,7 +39884,7 @@
       <c r="Y1012" s="9"/>
       <c r="Z1012" s="9"/>
     </row>
-    <row r="1013" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1013" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1013" s="9"/>
       <c r="T1013" s="9"/>
       <c r="U1013" s="9"/>
@@ -39894,7 +39894,7 @@
       <c r="Y1013" s="9"/>
       <c r="Z1013" s="9"/>
     </row>
-    <row r="1014" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1014" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1014" s="9"/>
       <c r="T1014" s="9"/>
       <c r="U1014" s="9"/>
@@ -39904,7 +39904,7 @@
       <c r="Y1014" s="9"/>
       <c r="Z1014" s="9"/>
     </row>
-    <row r="1015" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1015" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1015" s="9"/>
       <c r="T1015" s="9"/>
       <c r="U1015" s="9"/>
@@ -39914,7 +39914,7 @@
       <c r="Y1015" s="9"/>
       <c r="Z1015" s="9"/>
     </row>
-    <row r="1016" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1016" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1016" s="9"/>
       <c r="T1016" s="9"/>
       <c r="U1016" s="9"/>
@@ -39924,7 +39924,7 @@
       <c r="Y1016" s="9"/>
       <c r="Z1016" s="9"/>
     </row>
-    <row r="1017" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1017" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1017" s="9"/>
       <c r="T1017" s="9"/>
       <c r="U1017" s="9"/>
@@ -39934,7 +39934,7 @@
       <c r="Y1017" s="9"/>
       <c r="Z1017" s="9"/>
     </row>
-    <row r="1018" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1018" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1018" s="9"/>
       <c r="T1018" s="9"/>
       <c r="U1018" s="9"/>
@@ -39944,7 +39944,7 @@
       <c r="Y1018" s="9"/>
       <c r="Z1018" s="9"/>
     </row>
-    <row r="1019" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1019" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1019" s="9"/>
       <c r="T1019" s="9"/>
       <c r="U1019" s="9"/>
@@ -39954,7 +39954,7 @@
       <c r="Y1019" s="9"/>
       <c r="Z1019" s="9"/>
     </row>
-    <row r="1020" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1020" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1020" s="9"/>
       <c r="T1020" s="9"/>
       <c r="U1020" s="9"/>
@@ -39964,7 +39964,7 @@
       <c r="Y1020" s="9"/>
       <c r="Z1020" s="9"/>
     </row>
-    <row r="1021" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1021" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1021" s="9"/>
       <c r="T1021" s="9"/>
       <c r="U1021" s="9"/>
@@ -39974,7 +39974,7 @@
       <c r="Y1021" s="9"/>
       <c r="Z1021" s="9"/>
     </row>
-    <row r="1022" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1022" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1022" s="9"/>
       <c r="T1022" s="9"/>
       <c r="U1022" s="9"/>
@@ -39984,7 +39984,7 @@
       <c r="Y1022" s="9"/>
       <c r="Z1022" s="9"/>
     </row>
-    <row r="1023" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1023" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1023" s="9"/>
       <c r="T1023" s="9"/>
       <c r="U1023" s="9"/>
@@ -39994,7 +39994,7 @@
       <c r="Y1023" s="9"/>
       <c r="Z1023" s="9"/>
     </row>
-    <row r="1024" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1024" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1024" s="9"/>
       <c r="T1024" s="9"/>
       <c r="U1024" s="9"/>
@@ -40004,7 +40004,7 @@
       <c r="Y1024" s="9"/>
       <c r="Z1024" s="9"/>
     </row>
-    <row r="1025" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1025" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1025" s="9"/>
       <c r="T1025" s="9"/>
       <c r="U1025" s="9"/>
@@ -40014,7 +40014,7 @@
       <c r="Y1025" s="9"/>
       <c r="Z1025" s="9"/>
     </row>
-    <row r="1026" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1026" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1026" s="9"/>
       <c r="T1026" s="9"/>
       <c r="U1026" s="9"/>
@@ -40024,7 +40024,7 @@
       <c r="Y1026" s="9"/>
       <c r="Z1026" s="9"/>
     </row>
-    <row r="1027" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1027" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1027" s="9"/>
       <c r="T1027" s="9"/>
       <c r="U1027" s="9"/>
@@ -40034,7 +40034,7 @@
       <c r="Y1027" s="9"/>
       <c r="Z1027" s="9"/>
     </row>
-    <row r="1028" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1028" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1028" s="9"/>
       <c r="T1028" s="9"/>
       <c r="U1028" s="9"/>
@@ -40044,7 +40044,7 @@
       <c r="Y1028" s="9"/>
       <c r="Z1028" s="9"/>
     </row>
-    <row r="1029" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1029" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1029" s="9"/>
       <c r="T1029" s="9"/>
       <c r="U1029" s="9"/>
@@ -40054,7 +40054,7 @@
       <c r="Y1029" s="9"/>
       <c r="Z1029" s="9"/>
     </row>
-    <row r="1030" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1030" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1030" s="9"/>
       <c r="T1030" s="9"/>
       <c r="U1030" s="9"/>
@@ -40064,7 +40064,7 @@
       <c r="Y1030" s="9"/>
       <c r="Z1030" s="9"/>
     </row>
-    <row r="1031" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1031" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1031" s="9"/>
       <c r="T1031" s="9"/>
       <c r="U1031" s="9"/>
@@ -40074,7 +40074,7 @@
       <c r="Y1031" s="9"/>
       <c r="Z1031" s="9"/>
     </row>
-    <row r="1032" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1032" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1032" s="9"/>
       <c r="T1032" s="9"/>
       <c r="U1032" s="9"/>
@@ -40084,7 +40084,7 @@
       <c r="Y1032" s="9"/>
       <c r="Z1032" s="9"/>
     </row>
-    <row r="1033" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1033" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1033" s="9"/>
       <c r="T1033" s="9"/>
       <c r="U1033" s="9"/>
@@ -40094,7 +40094,7 @@
       <c r="Y1033" s="9"/>
       <c r="Z1033" s="9"/>
     </row>
-    <row r="1034" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1034" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1034" s="9"/>
       <c r="T1034" s="9"/>
       <c r="U1034" s="9"/>
@@ -40104,7 +40104,7 @@
       <c r="Y1034" s="9"/>
       <c r="Z1034" s="9"/>
     </row>
-    <row r="1035" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1035" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1035" s="9"/>
       <c r="T1035" s="9"/>
       <c r="U1035" s="9"/>
@@ -40114,7 +40114,7 @@
       <c r="Y1035" s="9"/>
       <c r="Z1035" s="9"/>
     </row>
-    <row r="1036" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1036" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1036" s="9"/>
       <c r="T1036" s="9"/>
       <c r="U1036" s="9"/>
@@ -40124,7 +40124,7 @@
       <c r="Y1036" s="9"/>
       <c r="Z1036" s="9"/>
     </row>
-    <row r="1037" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1037" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1037" s="9"/>
       <c r="T1037" s="9"/>
       <c r="U1037" s="9"/>
@@ -40134,7 +40134,7 @@
       <c r="Y1037" s="9"/>
       <c r="Z1037" s="9"/>
     </row>
-    <row r="1038" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1038" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1038" s="9"/>
       <c r="T1038" s="9"/>
       <c r="U1038" s="9"/>
@@ -40144,7 +40144,7 @@
       <c r="Y1038" s="9"/>
       <c r="Z1038" s="9"/>
     </row>
-    <row r="1039" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1039" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1039" s="9"/>
       <c r="T1039" s="9"/>
       <c r="U1039" s="9"/>
@@ -40154,7 +40154,7 @@
       <c r="Y1039" s="9"/>
       <c r="Z1039" s="9"/>
     </row>
-    <row r="1040" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1040" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1040" s="9"/>
       <c r="T1040" s="9"/>
       <c r="U1040" s="9"/>
@@ -40164,7 +40164,7 @@
       <c r="Y1040" s="9"/>
       <c r="Z1040" s="9"/>
     </row>
-    <row r="1041" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1041" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1041" s="9"/>
       <c r="T1041" s="9"/>
       <c r="U1041" s="9"/>
@@ -40174,7 +40174,7 @@
       <c r="Y1041" s="9"/>
       <c r="Z1041" s="9"/>
     </row>
-    <row r="1042" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1042" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1042" s="9"/>
       <c r="T1042" s="9"/>
       <c r="U1042" s="9"/>
@@ -40184,7 +40184,7 @@
       <c r="Y1042" s="9"/>
       <c r="Z1042" s="9"/>
     </row>
-    <row r="1043" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1043" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1043" s="9"/>
       <c r="T1043" s="9"/>
       <c r="U1043" s="9"/>
@@ -40194,7 +40194,7 @@
       <c r="Y1043" s="9"/>
       <c r="Z1043" s="9"/>
     </row>
-    <row r="1044" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1044" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1044" s="9"/>
       <c r="T1044" s="9"/>
       <c r="U1044" s="9"/>
@@ -40204,7 +40204,7 @@
       <c r="Y1044" s="9"/>
       <c r="Z1044" s="9"/>
     </row>
-    <row r="1045" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1045" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1045" s="9"/>
       <c r="T1045" s="9"/>
       <c r="U1045" s="9"/>
@@ -40214,7 +40214,7 @@
       <c r="Y1045" s="9"/>
       <c r="Z1045" s="9"/>
     </row>
-    <row r="1046" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1046" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1046" s="9"/>
       <c r="T1046" s="9"/>
       <c r="U1046" s="9"/>
@@ -40224,7 +40224,7 @@
       <c r="Y1046" s="9"/>
       <c r="Z1046" s="9"/>
     </row>
-    <row r="1047" spans="19:26" x14ac:dyDescent="0.35">
+    <row r="1047" spans="19:26" x14ac:dyDescent="0.25">
       <c r="S1047" s="9"/>
       <c r="T1047" s="9"/>
       <c r="U1047" s="9"/>

--- a/output/xlsx_reports/unit_combat_speeds.xlsx
+++ b/output/xlsx_reports/unit_combat_speeds.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7155"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7160"/>
   </bookViews>
   <sheets>
     <sheet name="combat_speeds" sheetId="1" r:id="rId1"/>
@@ -655,33 +655,33 @@
   <dimension ref="A1:Z1047"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="47.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="26" width="8.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="14.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="26" width="8.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -718,7 +718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -742,7 +742,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -774,7 +774,7 @@
       <c r="V3" s="24"/>
       <c r="W3" s="25"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -854,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M12" s="19"/>
       <c r="R12" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M21" s="19"/>
       <c r="R21" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M83" s="19"/>
       <c r="R83" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M89" s="19"/>
       <c r="R89" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M96" s="19"/>
       <c r="R96" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M111" s="19"/>
       <c r="R111" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M112" s="19"/>
       <c r="R112" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M113" s="19"/>
       <c r="R113" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M114" s="19"/>
       <c r="R114" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M115" s="19"/>
       <c r="R115" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M116" s="19"/>
       <c r="R116" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M117" s="19"/>
       <c r="R117" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M118" s="19"/>
       <c r="R118" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M119" s="19"/>
       <c r="R119" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M120" s="19"/>
       <c r="R120" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M121" s="19"/>
       <c r="R121" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M122" s="19"/>
       <c r="R122" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M123" s="19"/>
       <c r="R123" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M124" s="19"/>
       <c r="R124" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M125" s="19"/>
       <c r="R125" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M132" s="19"/>
       <c r="R132" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M146" s="19"/>
       <c r="R146" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M147" s="19"/>
       <c r="R147" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M148" s="19"/>
       <c r="R148" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M149" s="19"/>
       <c r="R149" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M150" s="19"/>
       <c r="R150" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M151" s="19"/>
       <c r="R151" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M152" s="19"/>
       <c r="R152" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M153" s="19"/>
       <c r="R153" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M154" s="19"/>
       <c r="R154" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M155" s="19"/>
       <c r="R155" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M156" s="19"/>
       <c r="R156" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M157" s="19"/>
       <c r="R157" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M158" s="19"/>
       <c r="R158" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M159" s="19"/>
       <c r="R159" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M160" s="19"/>
       <c r="R160" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M161" s="19"/>
       <c r="R161" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="M162" s="19"/>
       <c r="R162" s="15">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R167" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R168" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R169" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R170" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R171" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R172" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R173" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R174" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R175" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R176" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R177" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R178" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R179" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R180" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R181" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R182" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R183" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8718,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R184" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R185" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R186" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R187" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R188" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R189" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R190" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R191" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R192" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R193" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R194" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R195" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R196" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R197" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R198" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R199" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9326,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R200" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R201" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R202" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R203" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R204" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R205" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R206" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R207" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R208" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9668,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R209" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R210" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R211" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R212" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R213" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R214" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R215" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R216" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R217" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R218" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R219" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R220" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R221" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R222" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R223" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R224" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R225" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R226" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R227" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R228" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R229" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R230" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R231" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R232" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10580,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R233" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R234" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R235" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R236" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R237" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R238" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R239" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R240" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R241" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R242" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R243" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R244" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R245" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R246" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R247" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R248" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R249" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R250" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R251" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R252" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11340,7 +11340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R253" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R254" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R255" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R256" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R257" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R258" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R259" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R260" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R261" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R262" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R263" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R264" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R265" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R266" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R267" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R268" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R269" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R270" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R271" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R272" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R273" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R274" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R275" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R276" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12252,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R277" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R278" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12328,7 +12328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R279" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12366,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R280" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12404,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R281" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R282" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R283" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R284" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12556,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R285" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R286" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12632,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R287" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R288" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R289" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R290" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R291" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12822,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R292" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R293" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R294" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R295" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R296" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R297" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13050,7 +13050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R298" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R299" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13126,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R300" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13164,7 +13164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R301" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R302" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13240,7 +13240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R303" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R304" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R305" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R306" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13392,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R307" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R308" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R309" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R310" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13544,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R311" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R312" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R313" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R314" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13696,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R315" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13734,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R316" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13772,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R317" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13810,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R318" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R319" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R320" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13924,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R321" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R322" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R323" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R324" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R325" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14114,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R326" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14152,7 +14152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R327" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R328" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14228,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R329" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14266,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R330" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R331" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14342,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R332" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R333" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R334" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14456,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R335" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R336" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R337" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R338" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R339" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R340" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14684,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R341" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14722,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R342" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R343" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R344" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R345" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R346" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14912,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R347" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14950,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R348" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -14988,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R349" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R350" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R351" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15102,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R352" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15140,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R353" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R354" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R355" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15254,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R356" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15292,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R357" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15330,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R358" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R359" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R360" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15444,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R361" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15482,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R362" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="363" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R363" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R364" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15596,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R365" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R366" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R367" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15710,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R368" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R369" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15786,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R370" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R371" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R372" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15900,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="373" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R373" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R374" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -15976,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R375" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R376" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16052,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R377" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R378" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R379" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R380" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16204,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="381" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R381" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16242,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R382" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="383" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R383" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R384" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="385" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R385" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R386" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16432,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="387" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R387" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="388" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R388" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="389" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R389" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16546,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="390" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R390" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="391" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R391" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16622,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R392" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="393" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R393" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R394" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16736,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="395" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R395" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16774,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R396" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16812,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="397" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R397" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="398" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R398" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R399" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16926,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="400" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R400" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R401" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="402" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R402" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="403" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R403" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="404" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R404" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17116,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="405" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R405" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17154,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="406" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R406" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17192,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="407" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R407" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="408" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R408" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17268,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="409" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R409" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17306,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="410" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R410" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17344,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R411" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17382,7 +17382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="412" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R412" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="413" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R413" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="414" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R414" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="415" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R415" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17534,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="416" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R416" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17572,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R417" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="418" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R418" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R419" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="420" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R420" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R421" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17762,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R422" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="423" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R423" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R424" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17876,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="425" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R425" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R426" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17952,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="427" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R427" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R428" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="429" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R429" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18066,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R430" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="431" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R431" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18142,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R432" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R433" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18218,7 +18218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R434" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R435" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18294,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R436" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R437" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R438" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R439" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18446,7 +18446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R440" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18484,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="441" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R441" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18522,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R442" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18560,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="443" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R443" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R444" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18636,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="445" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R445" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R446" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18712,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="447" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R447" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="448" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R448" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18788,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="449" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R449" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R450" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="451" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R451" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R452" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18940,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="453" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R453" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -18978,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="454" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R454" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19016,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="455" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R455" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="456" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R456" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19092,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="457" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R457" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="458" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R458" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="459" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R459" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19206,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="460" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R460" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="461" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R461" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="462" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R462" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19320,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="463" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R463" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19358,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="464" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R464" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="465" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R465" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="466" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R466" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19472,7 +19472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="467" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R467" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="468" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R468" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="469" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R469" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19586,7 +19586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="470" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R470" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="471" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R471" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="472" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R472" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19700,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="473" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R473" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="474" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R474" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19776,7 +19776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="475" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R475" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19814,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="476" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R476" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="477" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R477" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="478" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R478" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="479" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R479" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -19966,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="480" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R480" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20004,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="481" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R481" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="482" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R482" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="483" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R483" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="484" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R484" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="485" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R485" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="486" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R486" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20232,7 +20232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="487" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R487" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="488" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R488" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20308,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="489" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R489" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20346,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="490" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R490" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="491" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R491" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20422,7 +20422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="492" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R492" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20460,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="493" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R493" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="494" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R494" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20536,7 +20536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="495" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R495" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20574,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="496" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R496" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20612,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R497" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R498" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20688,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="499" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R499" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="500" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R500" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="501" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R501" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20802,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="502" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R502" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20840,7 +20840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R503" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="504" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R504" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20916,7 +20916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="505" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R505" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20954,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="506" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R506" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="507" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R507" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21030,7 +21030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R508" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21068,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="509" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R509" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="510" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R510" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21144,7 +21144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="511" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R511" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21182,7 +21182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="512" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R512" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21220,7 +21220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="513" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R513" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="514" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R514" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21296,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="515" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R515" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21334,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="516" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R516" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21372,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="517" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R517" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21410,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="518" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R518" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21448,7 +21448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="519" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R519" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21486,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="520" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R520" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21524,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="521" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R521" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21562,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="522" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R522" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="523" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R523" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21638,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="524" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R524" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="525" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R525" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21714,7 +21714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="526" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R526" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21752,7 +21752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="527" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R527" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="528" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R528" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21828,7 +21828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="529" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R529" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21866,7 +21866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="530" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R530" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21904,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="531" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R531" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21942,7 +21942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="532" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R532" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="533" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R533" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="534" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R534" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22056,7 +22056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="535" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R535" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="536" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R536" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22132,7 +22132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="537" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R537" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22170,7 +22170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="538" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R538" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22208,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="539" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R539" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22246,7 +22246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="540" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R540" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="541" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R541" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="542" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R542" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22360,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="543" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R543" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22398,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="544" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R544" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="545" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R545" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="546" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R546" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="547" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R547" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="548" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R548" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22588,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="549" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R549" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="550" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R550" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22664,7 +22664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="551" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R551" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="552" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R552" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22740,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="553" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R553" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22778,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="554" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R554" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22816,7 +22816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="555" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R555" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22854,7 +22854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="556" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R556" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="557" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R557" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="558" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R558" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -22968,7 +22968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="559" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R559" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23006,7 +23006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="560" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R560" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="561" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R561" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23082,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="562" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R562" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23120,7 +23120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="563" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R563" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="564" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R564" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="565" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R565" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23234,7 +23234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="566" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R566" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="567" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R567" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23310,7 +23310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="568" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R568" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="569" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R569" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23386,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="570" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R570" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="571" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R571" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="572" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R572" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="573" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R573" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="574" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R574" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="575" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R575" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="576" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R576" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23652,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="577" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R577" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23690,7 +23690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="578" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R578" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="579" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R579" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23766,7 +23766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="580" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R580" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="581" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R581" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23842,7 +23842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="582" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R582" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23880,7 +23880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="583" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R583" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23918,7 +23918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="584" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R584" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="585" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R585" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -23994,7 +23994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="586" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R586" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="587" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R587" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24070,7 +24070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="588" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R588" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="589" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R589" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24146,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="590" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R590" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="591" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R591" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="592" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R592" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="593" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R593" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="594" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R594" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="595" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R595" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24374,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="596" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R596" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="597" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R597" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="598" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R598" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="599" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R599" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24526,7 +24526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="600" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R600" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24564,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="601" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R601" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24602,7 +24602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="602" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R602" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="603" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R603" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="604" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R604" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24716,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="605" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R605" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24754,7 +24754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="606" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R606" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24792,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="607" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R607" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24830,7 +24830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="608" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R608" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="609" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R609" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="610" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R610" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24944,7 +24944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="611" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R611" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="612" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R612" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="613" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R613" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="614" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R614" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25096,7 +25096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="615" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R615" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="616" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R616" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="617" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R617" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="618" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R618" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="619" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R619" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="620" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R620" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="621" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R621" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="622" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R622" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="623" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R623" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="624" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R624" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25476,7 +25476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="625" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R625" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="626" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R626" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="627" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R627" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="628" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R628" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="629" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R629" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25666,7 +25666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="630" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R630" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25704,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="631" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R631" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25742,7 +25742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="632" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R632" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25780,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="633" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R633" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="634" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R634" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25856,7 +25856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="635" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R635" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25894,7 +25894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="636" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R636" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25932,7 +25932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="637" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R637" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="638" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R638" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="639" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R639" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="640" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R640" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26084,7 +26084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="641" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R641" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26122,7 +26122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="642" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R642" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26160,7 +26160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="643" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R643" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26198,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="644" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R644" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26236,7 +26236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="645" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R645" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26274,7 +26274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="646" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R646" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26312,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="647" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R647" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26350,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="648" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R648" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26388,7 +26388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="649" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R649" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="650" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R650" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26464,7 +26464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="651" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R651" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="652" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R652" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26540,7 +26540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="653" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R653" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26578,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="654" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R654" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26616,7 +26616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="655" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R655" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26654,7 +26654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="656" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R656" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26692,7 +26692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="657" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R657" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26730,7 +26730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="658" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R658" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26768,7 +26768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="659" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R659" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26806,7 +26806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="660" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R660" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26844,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="661" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R661" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26882,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="662" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R662" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="663" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R663" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26958,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="664" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R664" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="665" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R665" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27034,7 +27034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="666" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R666" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27072,7 +27072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="667" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R667" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27110,7 +27110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="668" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R668" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27148,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="669" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R669" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27186,7 +27186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="670" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R670" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27224,7 +27224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="671" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R671" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27262,7 +27262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="672" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R672" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27300,7 +27300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="673" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R673" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27338,7 +27338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="674" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R674" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27376,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="675" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R675" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27414,7 +27414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="676" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R676" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27452,7 +27452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="677" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R677" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="678" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R678" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27528,7 +27528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="679" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R679" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27566,7 +27566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="680" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R680" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27604,7 +27604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="681" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R681" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27642,7 +27642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="682" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R682" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27680,7 +27680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="683" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R683" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="684" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R684" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27756,7 +27756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="685" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R685" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="686" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R686" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27832,7 +27832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="687" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R687" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="688" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R688" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="689" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R689" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="690" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R690" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -27984,7 +27984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="691" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R691" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="692" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R692" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28060,7 +28060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="693" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R693" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="694" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R694" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28136,7 +28136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="695" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R695" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28174,7 +28174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="696" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R696" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28212,7 +28212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="697" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R697" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="698" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R698" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28288,7 +28288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="699" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R699" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28326,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="700" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R700" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28364,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="701" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R701" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28402,7 +28402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="702" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R702" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28440,7 +28440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="703" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R703" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28478,7 +28478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="704" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R704" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28516,7 +28516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="705" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R705" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="706" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R706" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28592,7 +28592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="707" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R707" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="708" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R708" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28668,7 +28668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="709" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R709" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="710" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R710" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28744,7 +28744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="711" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R711" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="712" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R712" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28820,7 +28820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="713" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R713" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="714" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R714" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28896,7 +28896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="715" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R715" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="716" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R716" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -28972,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="717" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R717" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="718" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R718" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29048,7 +29048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="719" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R719" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="720" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R720" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29124,7 +29124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="721" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R721" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="722" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R722" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29200,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="723" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R723" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="724" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R724" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29276,7 +29276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="725" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R725" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29314,7 +29314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="726" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R726" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29352,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="727" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R727" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29390,7 +29390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="728" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R728" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="729" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R729" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="730" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R730" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29504,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="731" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R731" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="732" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R732" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="733" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R733" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29618,7 +29618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="734" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R734" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29656,7 +29656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="735" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R735" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="736" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R736" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29732,7 +29732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="737" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R737" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="738" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R738" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="739" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R739" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="740" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R740" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29884,7 +29884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="741" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R741" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29922,7 +29922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="742" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R742" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29960,7 +29960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="743" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R743" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="744" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R744" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="745" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R745" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="746" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R746" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30112,7 +30112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="747" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R747" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="748" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R748" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="749" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R749" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="750" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R750" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30264,7 +30264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="751" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R751" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="752" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R752" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30340,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="753" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R753" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30378,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="754" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R754" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="755" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R755" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="756" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R756" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30492,7 +30492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="757" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R757" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30530,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="758" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R758" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30568,7 +30568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="759" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R759" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30606,7 +30606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="760" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R760" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="761" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R761" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30682,7 +30682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="762" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R762" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30720,7 +30720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="763" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R763" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30758,7 +30758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="764" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R764" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30796,7 +30796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="765" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R765" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30834,7 +30834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="766" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R766" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30872,7 +30872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="767" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R767" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30910,7 +30910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="768" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R768" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30948,7 +30948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="769" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R769" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -30986,7 +30986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="770" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R770" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31024,7 +31024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="771" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R771" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31062,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="772" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R772" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31100,7 +31100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="773" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R773" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="774" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R774" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="775" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R775" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31214,7 +31214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="776" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R776" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31252,7 +31252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="777" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R777" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31290,7 +31290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="778" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R778" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31328,7 +31328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="779" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R779" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31366,7 +31366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="780" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R780" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31404,7 +31404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="781" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R781" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="782" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R782" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31480,7 +31480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="783" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R783" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="784" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R784" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31556,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="785" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R785" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="786" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R786" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31632,7 +31632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="787" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R787" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31670,7 +31670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="788" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R788" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="789" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R789" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31746,7 +31746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="790" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R790" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31784,7 +31784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="791" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R791" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31822,7 +31822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="792" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R792" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31860,7 +31860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="793" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R793" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31898,7 +31898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="794" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R794" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31936,7 +31936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="795" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R795" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -31974,7 +31974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="796" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R796" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32012,7 +32012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="797" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R797" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32050,7 +32050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="798" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R798" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32088,7 +32088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="799" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R799" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32126,7 +32126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="800" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R800" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32164,7 +32164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="801" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R801" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32202,7 +32202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="802" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R802" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32240,7 +32240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="803" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R803" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32278,7 +32278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="804" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R804" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32316,7 +32316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="805" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R805" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32354,7 +32354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="806" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R806" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32392,7 +32392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="807" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R807" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32430,7 +32430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="808" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R808" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32468,7 +32468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="809" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R809" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32506,7 +32506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="810" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R810" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32544,7 +32544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="811" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R811" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32582,7 +32582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="812" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R812" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32620,7 +32620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="813" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R813" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32658,7 +32658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="814" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R814" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32696,7 +32696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="815" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R815" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32734,7 +32734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="816" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R816" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32772,7 +32772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="817" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R817" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32810,7 +32810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="818" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R818" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32848,7 +32848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="819" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R819" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32886,7 +32886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="820" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R820" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32924,7 +32924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="821" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R821" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -32962,7 +32962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="822" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R822" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33000,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="823" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R823" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33038,7 +33038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="824" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R824" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33076,7 +33076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="825" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R825" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33114,7 +33114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="826" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R826" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33152,7 +33152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="827" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R827" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33190,7 +33190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="828" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R828" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33228,7 +33228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="829" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R829" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="830" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R830" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33304,7 +33304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="831" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R831" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33342,7 +33342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="832" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R832" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33380,7 +33380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="833" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R833" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="834" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R834" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33456,7 +33456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="835" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R835" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="836" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R836" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33532,7 +33532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="837" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R837" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33570,7 +33570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="838" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R838" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33608,7 +33608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="839" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R839" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="840" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R840" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33684,7 +33684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="841" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R841" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33722,7 +33722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="842" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R842" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33760,7 +33760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="843" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R843" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33798,7 +33798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="844" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R844" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33836,7 +33836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="845" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R845" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33874,7 +33874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="846" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R846" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33912,7 +33912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="847" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R847" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33950,7 +33950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="848" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R848" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -33988,7 +33988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="849" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R849" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34026,7 +34026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="850" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R850" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34064,7 +34064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="851" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R851" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34102,7 +34102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="852" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R852" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="853" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R853" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34178,7 +34178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="854" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R854" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34216,7 +34216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="855" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R855" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34254,7 +34254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="856" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R856" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34292,7 +34292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="857" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R857" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34330,7 +34330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="858" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R858" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="859" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R859" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34406,7 +34406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="860" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R860" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="861" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R861" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34482,7 +34482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="862" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R862" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="863" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R863" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34558,7 +34558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="864" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R864" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34596,7 +34596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="865" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R865" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34634,7 +34634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="866" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R866" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34672,7 +34672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="867" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R867" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="868" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R868" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34748,7 +34748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="869" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R869" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="870" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R870" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34824,7 +34824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="871" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R871" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="872" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R872" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34900,7 +34900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="873" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R873" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="874" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R874" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -34976,7 +34976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="875" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R875" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="876" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R876" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35052,7 +35052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="877" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R877" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35090,7 +35090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="878" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R878" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35128,7 +35128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="879" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R879" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35166,7 +35166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="880" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R880" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35204,7 +35204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="881" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R881" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35242,7 +35242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="882" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R882" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35280,7 +35280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="883" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R883" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="884" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R884" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35356,7 +35356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="885" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R885" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35394,7 +35394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="886" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R886" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35432,7 +35432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="887" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R887" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35470,7 +35470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="888" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R888" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35508,7 +35508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="889" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R889" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35546,7 +35546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="890" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R890" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35584,7 +35584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="891" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R891" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35622,7 +35622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="892" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R892" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35660,7 +35660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="893" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R893" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35698,7 +35698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="894" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R894" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35736,7 +35736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="895" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R895" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35774,7 +35774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="896" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R896" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35812,7 +35812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="897" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R897" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35850,7 +35850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="898" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R898" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35888,7 +35888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="899" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R899" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35926,7 +35926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="900" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R900" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -35964,7 +35964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="901" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R901" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36002,7 +36002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="902" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R902" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36040,7 +36040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="903" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R903" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36078,7 +36078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="904" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R904" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36116,7 +36116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="905" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R905" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="906" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R906" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36192,7 +36192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="907" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R907" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36230,7 +36230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="908" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R908" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36268,7 +36268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="909" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R909" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36306,7 +36306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="910" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R910" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36344,7 +36344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="911" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R911" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36382,7 +36382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="912" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R912" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36420,7 +36420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="913" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R913" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="914" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R914" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36496,7 +36496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="915" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R915" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="916" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R916" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36572,7 +36572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="917" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R917" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="918" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R918" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36648,7 +36648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="919" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R919" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="920" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R920" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36724,7 +36724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="921" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R921" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="922" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R922" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36800,7 +36800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="923" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R923" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="924" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R924" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36876,7 +36876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="925" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R925" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="926" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R926" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36952,7 +36952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="927" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R927" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="928" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R928" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37028,7 +37028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="929" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R929" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="930" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R930" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37104,7 +37104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="931" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R931" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="932" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R932" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37180,7 +37180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="933" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R933" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="934" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R934" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37256,7 +37256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="935" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R935" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37294,7 +37294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="936" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R936" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37332,7 +37332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="937" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R937" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37370,7 +37370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="938" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R938" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="939" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R939" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="940" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R940" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="941" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R941" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37522,7 +37522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="942" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R942" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="943" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R943" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37598,7 +37598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="944" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R944" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="945" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R945" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37674,7 +37674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="946" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R946" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="947" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R947" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37750,7 +37750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="948" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R948" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="949" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R949" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37826,7 +37826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="950" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R950" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="951" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R951" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37902,7 +37902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="952" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R952" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="953" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R953" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -37978,7 +37978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="954" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R954" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="955" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R955" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38054,7 +38054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="956" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R956" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="957" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R957" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38130,7 +38130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="958" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R958" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38168,7 +38168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="959" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R959" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38206,7 +38206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="960" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R960" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38244,7 +38244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="961" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R961" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38282,7 +38282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="962" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R962" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38320,7 +38320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="963" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R963" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38358,7 +38358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="964" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R964" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38396,7 +38396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="965" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R965" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38434,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="966" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R966" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38472,7 +38472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="967" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R967" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38510,7 +38510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="968" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R968" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38548,7 +38548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="969" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R969" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38586,7 +38586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="970" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R970" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38624,7 +38624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="971" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R971" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38662,7 +38662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="972" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R972" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38700,7 +38700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="973" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R973" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38738,7 +38738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="974" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R974" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38776,7 +38776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="975" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R975" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38814,7 +38814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="976" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R976" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38852,7 +38852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="977" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R977" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38890,7 +38890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="978" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R978" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38928,7 +38928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="979" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R979" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -38966,7 +38966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="980" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R980" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39004,7 +39004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="981" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R981" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39042,7 +39042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="982" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R982" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39080,7 +39080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="983" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R983" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39118,7 +39118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="984" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R984" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39156,7 +39156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="985" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R985" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39194,7 +39194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="986" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R986" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39232,7 +39232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="987" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R987" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39270,7 +39270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="988" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R988" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39308,7 +39308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="989" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R989" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39346,7 +39346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="990" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R990" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39384,7 +39384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="991" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R991" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39422,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="992" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R992" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39460,7 +39460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="993" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R993" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39498,7 +39498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="994" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R994" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39536,7 +39536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="995" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R995" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39574,7 +39574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="996" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R996" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39612,7 +39612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="997" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R997" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39650,7 +39650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="998" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R998" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39688,7 +39688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="999" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R999" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39726,7 +39726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1000" spans="18:26" x14ac:dyDescent="0.35">
       <c r="R1000" s="3">
         <f>SUM((((Table1[[#This Row],[base spd]])*(1 + $R$1+$R$2)) + Table1[[#This Row],[rune spd]]) * (1 + $R$3))</f>
         <v>0</v>
@@ -39764,7 +39764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1001" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1001" s="9"/>
       <c r="T1001" s="9"/>
       <c r="U1001" s="9"/>
@@ -39774,7 +39774,7 @@
       <c r="Y1001" s="9"/>
       <c r="Z1001" s="9"/>
     </row>
-    <row r="1002" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1002" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1002" s="9"/>
       <c r="T1002" s="9"/>
       <c r="U1002" s="9"/>
@@ -39784,7 +39784,7 @@
       <c r="Y1002" s="9"/>
       <c r="Z1002" s="9"/>
     </row>
-    <row r="1003" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1003" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1003" s="9"/>
       <c r="T1003" s="9"/>
       <c r="U1003" s="9"/>
@@ -39794,7 +39794,7 @@
       <c r="Y1003" s="9"/>
       <c r="Z1003" s="9"/>
     </row>
-    <row r="1004" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1004" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1004" s="9"/>
       <c r="T1004" s="9"/>
       <c r="U1004" s="9"/>
@@ -39804,7 +39804,7 @@
       <c r="Y1004" s="9"/>
       <c r="Z1004" s="9"/>
     </row>
-    <row r="1005" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1005" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1005" s="9"/>
       <c r="T1005" s="9"/>
       <c r="U1005" s="9"/>
@@ -39814,7 +39814,7 @@
       <c r="Y1005" s="9"/>
       <c r="Z1005" s="9"/>
     </row>
-    <row r="1006" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1006" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1006" s="9"/>
       <c r="T1006" s="9"/>
       <c r="U1006" s="9"/>
@@ -39824,7 +39824,7 @@
       <c r="Y1006" s="9"/>
       <c r="Z1006" s="9"/>
     </row>
-    <row r="1007" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1007" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1007" s="9"/>
       <c r="T1007" s="9"/>
       <c r="U1007" s="9"/>
@@ -39834,7 +39834,7 @@
       <c r="Y1007" s="9"/>
       <c r="Z1007" s="9"/>
     </row>
-    <row r="1008" spans="18:26" x14ac:dyDescent="0.25">
+    <row r="1008" spans="18:26" x14ac:dyDescent="0.35">
       <c r="S1008" s="9"/>
       <c r="T1008" s="9"/>
       <c r="U1008" s="9"/>
@@ -39844,7 +39844,7 @@
       <c r="Y1008" s="9"/>
       <c r="Z1008" s="9"/>
     </row>
-    <row r="1009" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1009" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1009" s="9"/>
       <c r="T1009" s="9"/>
       <c r="U1009" s="9"/>
@@ -39854,7 +39854,7 @@
       <c r="Y1009" s="9"/>
       <c r="Z1009" s="9"/>
     </row>
-    <row r="1010" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1010" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1010" s="9"/>
       <c r="T1010" s="9"/>
       <c r="U1010" s="9"/>
@@ -39864,7 +39864,7 @@
       <c r="Y1010" s="9"/>
       <c r="Z1010" s="9"/>
     </row>
-    <row r="1011" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1011" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1011" s="9"/>
       <c r="T1011" s="9"/>
       <c r="U1011" s="9"/>
@@ -39874,7 +39874,7 @@
       <c r="Y1011" s="9"/>
       <c r="Z1011" s="9"/>
     </row>
-    <row r="1012" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1012" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1012" s="9"/>
       <c r="T1012" s="9"/>
       <c r="U1012" s="9"/>
@@ -39884,7 +39884,7 @@
       <c r="Y1012" s="9"/>
       <c r="Z1012" s="9"/>
     </row>
-    <row r="1013" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1013" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1013" s="9"/>
       <c r="T1013" s="9"/>
       <c r="U1013" s="9"/>
@@ -39894,7 +39894,7 @@
       <c r="Y1013" s="9"/>
       <c r="Z1013" s="9"/>
     </row>
-    <row r="1014" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1014" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1014" s="9"/>
       <c r="T1014" s="9"/>
       <c r="U1014" s="9"/>
@@ -39904,7 +39904,7 @@
       <c r="Y1014" s="9"/>
       <c r="Z1014" s="9"/>
     </row>
-    <row r="1015" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1015" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1015" s="9"/>
       <c r="T1015" s="9"/>
       <c r="U1015" s="9"/>
@@ -39914,7 +39914,7 @@
       <c r="Y1015" s="9"/>
       <c r="Z1015" s="9"/>
     </row>
-    <row r="1016" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1016" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1016" s="9"/>
       <c r="T1016" s="9"/>
       <c r="U1016" s="9"/>
@@ -39924,7 +39924,7 @@
       <c r="Y1016" s="9"/>
       <c r="Z1016" s="9"/>
     </row>
-    <row r="1017" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1017" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1017" s="9"/>
       <c r="T1017" s="9"/>
       <c r="U1017" s="9"/>
@@ -39934,7 +39934,7 @@
       <c r="Y1017" s="9"/>
       <c r="Z1017" s="9"/>
     </row>
-    <row r="1018" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1018" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1018" s="9"/>
       <c r="T1018" s="9"/>
       <c r="U1018" s="9"/>
@@ -39944,7 +39944,7 @@
       <c r="Y1018" s="9"/>
       <c r="Z1018" s="9"/>
     </row>
-    <row r="1019" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1019" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1019" s="9"/>
       <c r="T1019" s="9"/>
       <c r="U1019" s="9"/>
@@ -39954,7 +39954,7 @@
       <c r="Y1019" s="9"/>
       <c r="Z1019" s="9"/>
     </row>
-    <row r="1020" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1020" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1020" s="9"/>
       <c r="T1020" s="9"/>
       <c r="U1020" s="9"/>
@@ -39964,7 +39964,7 @@
       <c r="Y1020" s="9"/>
       <c r="Z1020" s="9"/>
     </row>
-    <row r="1021" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1021" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1021" s="9"/>
       <c r="T1021" s="9"/>
       <c r="U1021" s="9"/>
@@ -39974,7 +39974,7 @@
       <c r="Y1021" s="9"/>
       <c r="Z1021" s="9"/>
     </row>
-    <row r="1022" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1022" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1022" s="9"/>
       <c r="T1022" s="9"/>
       <c r="U1022" s="9"/>
@@ -39984,7 +39984,7 @@
       <c r="Y1022" s="9"/>
       <c r="Z1022" s="9"/>
     </row>
-    <row r="1023" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1023" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1023" s="9"/>
       <c r="T1023" s="9"/>
       <c r="U1023" s="9"/>
@@ -39994,7 +39994,7 @@
       <c r="Y1023" s="9"/>
       <c r="Z1023" s="9"/>
     </row>
-    <row r="1024" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1024" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1024" s="9"/>
       <c r="T1024" s="9"/>
       <c r="U1024" s="9"/>
@@ -40004,7 +40004,7 @@
       <c r="Y1024" s="9"/>
       <c r="Z1024" s="9"/>
     </row>
-    <row r="1025" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1025" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1025" s="9"/>
       <c r="T1025" s="9"/>
       <c r="U1025" s="9"/>
@@ -40014,7 +40014,7 @@
       <c r="Y1025" s="9"/>
       <c r="Z1025" s="9"/>
     </row>
-    <row r="1026" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1026" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1026" s="9"/>
       <c r="T1026" s="9"/>
       <c r="U1026" s="9"/>
@@ -40024,7 +40024,7 @@
       <c r="Y1026" s="9"/>
       <c r="Z1026" s="9"/>
     </row>
-    <row r="1027" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1027" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1027" s="9"/>
       <c r="T1027" s="9"/>
       <c r="U1027" s="9"/>
@@ -40034,7 +40034,7 @@
       <c r="Y1027" s="9"/>
       <c r="Z1027" s="9"/>
     </row>
-    <row r="1028" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1028" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1028" s="9"/>
       <c r="T1028" s="9"/>
       <c r="U1028" s="9"/>
@@ -40044,7 +40044,7 @@
       <c r="Y1028" s="9"/>
       <c r="Z1028" s="9"/>
     </row>
-    <row r="1029" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1029" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1029" s="9"/>
       <c r="T1029" s="9"/>
       <c r="U1029" s="9"/>
@@ -40054,7 +40054,7 @@
       <c r="Y1029" s="9"/>
       <c r="Z1029" s="9"/>
     </row>
-    <row r="1030" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1030" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1030" s="9"/>
       <c r="T1030" s="9"/>
       <c r="U1030" s="9"/>
@@ -40064,7 +40064,7 @@
       <c r="Y1030" s="9"/>
       <c r="Z1030" s="9"/>
     </row>
-    <row r="1031" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1031" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1031" s="9"/>
       <c r="T1031" s="9"/>
       <c r="U1031" s="9"/>
@@ -40074,7 +40074,7 @@
       <c r="Y1031" s="9"/>
       <c r="Z1031" s="9"/>
     </row>
-    <row r="1032" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1032" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1032" s="9"/>
       <c r="T1032" s="9"/>
       <c r="U1032" s="9"/>
@@ -40084,7 +40084,7 @@
       <c r="Y1032" s="9"/>
       <c r="Z1032" s="9"/>
     </row>
-    <row r="1033" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1033" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1033" s="9"/>
       <c r="T1033" s="9"/>
       <c r="U1033" s="9"/>
@@ -40094,7 +40094,7 @@
       <c r="Y1033" s="9"/>
       <c r="Z1033" s="9"/>
     </row>
-    <row r="1034" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1034" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1034" s="9"/>
       <c r="T1034" s="9"/>
       <c r="U1034" s="9"/>
@@ -40104,7 +40104,7 @@
       <c r="Y1034" s="9"/>
       <c r="Z1034" s="9"/>
     </row>
-    <row r="1035" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1035" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1035" s="9"/>
       <c r="T1035" s="9"/>
       <c r="U1035" s="9"/>
@@ -40114,7 +40114,7 @@
       <c r="Y1035" s="9"/>
       <c r="Z1035" s="9"/>
     </row>
-    <row r="1036" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1036" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1036" s="9"/>
       <c r="T1036" s="9"/>
       <c r="U1036" s="9"/>
@@ -40124,7 +40124,7 @@
       <c r="Y1036" s="9"/>
       <c r="Z1036" s="9"/>
     </row>
-    <row r="1037" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1037" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1037" s="9"/>
       <c r="T1037" s="9"/>
       <c r="U1037" s="9"/>
@@ -40134,7 +40134,7 @@
       <c r="Y1037" s="9"/>
       <c r="Z1037" s="9"/>
     </row>
-    <row r="1038" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1038" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1038" s="9"/>
       <c r="T1038" s="9"/>
       <c r="U1038" s="9"/>
@@ -40144,7 +40144,7 @@
       <c r="Y1038" s="9"/>
       <c r="Z1038" s="9"/>
     </row>
-    <row r="1039" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1039" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1039" s="9"/>
       <c r="T1039" s="9"/>
       <c r="U1039" s="9"/>
@@ -40154,7 +40154,7 @@
       <c r="Y1039" s="9"/>
       <c r="Z1039" s="9"/>
     </row>
-    <row r="1040" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1040" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1040" s="9"/>
       <c r="T1040" s="9"/>
       <c r="U1040" s="9"/>
@@ -40164,7 +40164,7 @@
       <c r="Y1040" s="9"/>
       <c r="Z1040" s="9"/>
     </row>
-    <row r="1041" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1041" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1041" s="9"/>
       <c r="T1041" s="9"/>
       <c r="U1041" s="9"/>
@@ -40174,7 +40174,7 @@
       <c r="Y1041" s="9"/>
       <c r="Z1041" s="9"/>
     </row>
-    <row r="1042" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1042" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1042" s="9"/>
       <c r="T1042" s="9"/>
       <c r="U1042" s="9"/>
@@ -40184,7 +40184,7 @@
       <c r="Y1042" s="9"/>
       <c r="Z1042" s="9"/>
     </row>
-    <row r="1043" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1043" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1043" s="9"/>
       <c r="T1043" s="9"/>
       <c r="U1043" s="9"/>
@@ -40194,7 +40194,7 @@
       <c r="Y1043" s="9"/>
       <c r="Z1043" s="9"/>
     </row>
-    <row r="1044" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1044" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1044" s="9"/>
       <c r="T1044" s="9"/>
       <c r="U1044" s="9"/>
@@ -40204,7 +40204,7 @@
       <c r="Y1044" s="9"/>
       <c r="Z1044" s="9"/>
     </row>
-    <row r="1045" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1045" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1045" s="9"/>
       <c r="T1045" s="9"/>
       <c r="U1045" s="9"/>
@@ -40214,7 +40214,7 @@
       <c r="Y1045" s="9"/>
       <c r="Z1045" s="9"/>
     </row>
-    <row r="1046" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1046" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1046" s="9"/>
       <c r="T1046" s="9"/>
       <c r="U1046" s="9"/>
@@ -40224,7 +40224,7 @@
       <c r="Y1046" s="9"/>
       <c r="Z1046" s="9"/>
     </row>
-    <row r="1047" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="1047" spans="19:26" x14ac:dyDescent="0.35">
       <c r="S1047" s="9"/>
       <c r="T1047" s="9"/>
       <c r="U1047" s="9"/>
@@ -40245,7 +40245,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="unit-combat-speeds"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>

--- a/output/xlsx_reports/unit_combat_speeds.xlsx
+++ b/output/xlsx_reports/unit_combat_speeds.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuzzy\BKsDBTools\summoners_war_0_1_0\output\xlsx_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuzzy\bk_sw_tools_DEV\output\xlsx_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:Z1047"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40245,7 +40245,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="unit-combat-speeds"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
